--- a/medicine/Enfance/Le_Jardin_secret/Le_Jardin_secret.xlsx
+++ b/medicine/Enfance/Le_Jardin_secret/Le_Jardin_secret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin secret (titre original : The Secret Garden) est un roman pour la jeunesse de l'écrivaine anglo-américaine Frances Hodgson Burnett, publié en 1911. 
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite d'une épidémie de choléra aux Indes, qui a tué ses parents, Mary Lennox, petite anglaise renfermée, désagréable et laideronne, part vivre chez un oncle étrange au fin fond des landes, en Angleterre. 
 En explorant la propriété de celui-ci, la petite fille trouve par hasard, avec l'aide d'un rouge-gorge, la clé d'un jardin délaissé de tous. Mary aime alors tant son royaume secret qu'elle s'y rend tous les jours. Guidée par une jolie musique de pipeau, Mary rencontre un jour un jeune garçon nommé Dickon qui sait étonnement parler aux animaux. Devenus amis, la fillette lui révèle son grand secret, et tous deux vont s'atteler à transformer ce verger en un royaume de fleurs dont Mary rêve tant.
@@ -546,7 +560,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mary Lennox : jeune anglaise qui n'a jamais appris à sourire ni à aimer et dont les parents sont morts à la suite d'une épidémie de choléra.
 Colin Craven : le fils d'Archibald Craven et le cousin de Mary. Sa mère est morte en le mettant au monde. Il est resté couché dans son lit depuis sa naissance et n'a jamais mis le nez dehors.
@@ -582,7 +598,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Au cinéma
 1919 : Le Jardin secret, film muet américain de Gustav von Seyffertitz.
@@ -596,10 +614,7 @@
 1987 : Le Jardin secret (The Secret Garden), téléfilm d'Alan Grint avec Gennie James dans le rôle de Mary. Une suite sera tournée en 2001.
 1991 : Himitsu no Hanazono / Secret Flower Garden, série japonaise de 39 épisodes produits en 1991-1992
 2001 : Back to the Secret Garden (en) (Retour au jardin secret), téléfilm de Michael Tuchner avec Camilla Belle. C’est la suite de la version de 1987.
-2006 : Soukou no Strain, série d'animation japonaise dont presque tous les personnages sont basés sur ceux des diverses œuvres de Frances Hodgson Burnett (La Petite Princesse, Le Jardin secret, Le Petit Lord Fauntleroy) mais les replace dans un monde futuriste.
-Autre
-2014 : The Misselthwaite Archives, web-série retransposant le roman au 21e siècle sous la forme de vlog tenu par Mary avec Sophie Giberson dans le rôle.
-2021 : Le Jardin secret, Bande-dessinée en plusieurs parties de Maud Begon.</t>
+2006 : Soukou no Strain, série d'animation japonaise dont presque tous les personnages sont basés sur ceux des diverses œuvres de Frances Hodgson Burnett (La Petite Princesse, Le Jardin secret, Le Petit Lord Fauntleroy) mais les replace dans un monde futuriste.</t>
         </is>
       </c>
     </row>
@@ -624,13 +639,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2014 : The Misselthwaite Archives, web-série retransposant le roman au 21e siècle sous la forme de vlog tenu par Mary avec Sophie Giberson dans le rôle.
+2021 : Le Jardin secret, Bande-dessinée en plusieurs parties de Maud Begon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Jardin_secret</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Jardin_secret</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1921 : Le Jardin mystérieux, traduction de Mme Jean Vallette, Publication : Neuchâtel, Suisse, éd. Delachaux et Niestlé, 311 p.[1]
-1934 : Le Jardin secret, traduction de Valentine Leconte, illustrations de Marcel Bloch. Publication : Paris, éditions Nelson, 235 p.[2]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1921 : Le Jardin mystérieux, traduction de Mme Jean Vallette, Publication : Neuchâtel, Suisse, éd. Delachaux et Niestlé, 311 p.
+1934 : Le Jardin secret, traduction de Valentine Leconte, illustrations de Marcel Bloch. Publication : Paris, éditions Nelson, 235 p.</t>
         </is>
       </c>
     </row>
